--- a/pred_ohlcv/54_21/2019-11-13 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 DVP ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-1225494.248120184</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-920914.1186201836</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-986431.2251201835</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-986381.2251201835</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1037925.042720184</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1035204.652820184</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-974747.8496201837</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-960344.0450201837</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-848637.8627201837</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-846537.8627201837</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-874284.4149201837</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-854570.9219201837</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-385230.2700289557</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-356608.9024289557</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-354166.5350289557</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2236350.354228956</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2236950.354228956</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2235000.354228956</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2235000.354228956</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2238635.354228956</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2286010.307328956</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 DVP ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-1250979.172620184</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1232870.331520184</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1317870.331520184</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1317770.331520184</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1401234.331520184</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1394398.705420184</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1391297.160220184</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-920914.1186201836</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-985972.6446201835</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-986431.2251201835</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-986381.2251201835</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1107420.376520184</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1037466.462220184</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1037925.042720184</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1035204.652820184</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-974747.8496201837</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-960344.0450201837</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-848637.8627201837</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-846537.8627201837</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-874284.4149201837</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-854570.9219201837</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-385230.2700289557</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-355711.1524289557</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-356608.9024289557</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-354166.5350289557</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1221092.301428956</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1218726.271028956</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1231780.397628956</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1207877.723828956</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1211156.702928956</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1211106.702928956</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1213617.652628956</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1215617.652628956</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1212413.232728956</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1212413.232728956</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1362413.232728956</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2236350.354228956</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2236950.354228956</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2235000.354228956</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2235000.354228956</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2238635.354228956</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2286010.307328956</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2281712.219728956</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2281197.435828956</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2281151.435828956</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
